--- a/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T10:06:24+00:00</t>
+    <t>2025-07-28T13:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:05:57+00:00</t>
+    <t>2025-07-28T16:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:01:54+00:00</t>
+    <t>2025-07-30T08:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="744">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:58:21+00:00</t>
+    <t>2025-08-06T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,17 +1839,13 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>Location.address.line.extension:streetNameBase</t>
@@ -13629,7 +13625,7 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>104</v>
@@ -13695,7 +13691,7 @@
         <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>75</v>
@@ -14022,7 +14018,7 @@
         <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>593</v>
+        <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>99</v>
@@ -14039,13 +14035,13 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>540</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>75</v>
@@ -14067,13 +14063,13 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14139,10 +14135,10 @@
         <v>118</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>75</v>
@@ -14150,13 +14146,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>540</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>75</v>
@@ -14178,13 +14174,13 @@
         <v>75</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14250,10 +14246,10 @@
         <v>118</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -14261,13 +14257,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>540</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>75</v>
@@ -14289,13 +14285,13 @@
         <v>75</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14361,7 +14357,7 @@
         <v>118</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -14372,10 +14368,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14401,10 +14397,10 @@
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14428,34 +14424,34 @@
         <v>75</v>
       </c>
       <c r="W106" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF106" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14481,14 +14477,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14510,10 +14506,10 @@
         <v>103</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>301</v>
@@ -14530,43 +14526,43 @@
         <v>75</v>
       </c>
       <c r="T107" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF107" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -14581,10 +14577,10 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>75</v>
@@ -14592,14 +14588,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14621,13 +14617,13 @@
         <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14641,43 +14637,43 @@
         <v>75</v>
       </c>
       <c r="T108" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF108" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14695,7 +14691,7 @@
         <v>75</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>75</v>
@@ -14703,14 +14699,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14732,10 +14728,10 @@
         <v>103</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>301</v>
@@ -14788,7 +14784,7 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -14806,7 +14802,7 @@
         <v>75</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>75</v>
@@ -14814,14 +14810,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14843,10 +14839,10 @@
         <v>103</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>301</v>
@@ -14863,43 +14859,43 @@
         <v>75</v>
       </c>
       <c r="T110" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -14914,10 +14910,10 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AL110" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>75</v>
@@ -14925,10 +14921,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14954,13 +14950,13 @@
         <v>103</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15010,7 +15006,7 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -15028,7 +15024,7 @@
         <v>75</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>75</v>
@@ -15036,10 +15032,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15065,16 +15061,16 @@
         <v>349</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>352</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>75</v>
@@ -15087,43 +15083,43 @@
         <v>75</v>
       </c>
       <c r="T112" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF112" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15149,10 +15145,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15178,16 +15174,16 @@
         <v>258</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>434</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>75</v>
@@ -15215,11 +15211,11 @@
         <v>157</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="Z113" t="s" s="2">
-        <v>664</v>
-      </c>
       <c r="AA113" t="s" s="2">
         <v>75</v>
       </c>
@@ -15236,7 +15232,7 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -15254,7 +15250,7 @@
         <v>75</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>430</v>
@@ -15262,10 +15258,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15288,17 +15284,17 @@
         <v>75</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>75</v>
@@ -15347,7 +15343,7 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -15362,10 +15358,10 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>75</v>
@@ -15373,10 +15369,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15482,10 +15478,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15593,13 +15589,13 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>75</v>
@@ -15621,13 +15617,13 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15704,14 +15700,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -15733,10 +15729,10 @@
         <v>110</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>113</v>
@@ -15791,7 +15787,7 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -15817,10 +15813,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15843,16 +15839,16 @@
         <v>75</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -15902,7 +15898,7 @@
         <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>85</v>
@@ -15917,10 +15913,10 @@
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>75</v>
@@ -15928,10 +15924,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15954,16 +15950,16 @@
         <v>75</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>694</v>
-      </c>
       <c r="N120" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16013,7 +16009,7 @@
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>85</v>
@@ -16028,10 +16024,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>75</v>
@@ -16039,10 +16035,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16065,16 +16061,16 @@
         <v>75</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="M121" t="s" s="2">
-        <v>698</v>
-      </c>
       <c r="N121" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16124,7 +16120,7 @@
         <v>75</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -16142,7 +16138,7 @@
         <v>75</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>75</v>
@@ -16150,10 +16146,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16176,19 +16172,19 @@
         <v>86</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>75</v>
@@ -16237,7 +16233,7 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>76</v>
@@ -16255,7 +16251,7 @@
         <v>75</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>75</v>
@@ -16263,10 +16259,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16289,19 +16285,19 @@
         <v>75</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>75</v>
@@ -16350,7 +16346,7 @@
         <v>75</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -16368,7 +16364,7 @@
         <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>75</v>
@@ -16376,10 +16372,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16402,16 +16398,16 @@
         <v>75</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16461,7 +16457,7 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -16479,7 +16475,7 @@
         <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>75</v>
@@ -16487,10 +16483,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16596,10 +16592,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16707,14 +16703,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -16736,10 +16732,10 @@
         <v>110</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>113</v>
@@ -16794,7 +16790,7 @@
         <v>75</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>76</v>
@@ -16820,10 +16816,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16849,10 +16845,10 @@
         <v>173</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>301</v>
@@ -16884,11 +16880,11 @@
         <v>164</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>725</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>75</v>
       </c>
@@ -16905,7 +16901,7 @@
         <v>75</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>76</v>
@@ -16923,7 +16919,7 @@
         <v>75</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>75</v>
@@ -16931,10 +16927,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16960,10 +16956,10 @@
         <v>315</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17014,7 +17010,7 @@
         <v>75</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>76</v>
@@ -17032,7 +17028,7 @@
         <v>75</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>75</v>
@@ -17040,10 +17036,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17066,13 +17062,13 @@
         <v>75</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17123,7 +17119,7 @@
         <v>75</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>76</v>
@@ -17141,7 +17137,7 @@
         <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>75</v>
@@ -17149,10 +17145,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17175,13 +17171,13 @@
         <v>75</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17232,7 +17228,7 @@
         <v>75</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>76</v>
@@ -17250,7 +17246,7 @@
         <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>75</v>
@@ -17258,10 +17254,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17287,10 +17283,10 @@
         <v>103</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>301</v>
@@ -17343,7 +17339,7 @@
         <v>75</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>76</v>
@@ -17369,10 +17365,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17395,19 +17391,19 @@
         <v>75</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="O133" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>75</v>
@@ -17456,7 +17452,7 @@
         <v>75</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>76</v>
@@ -17474,7 +17470,7 @@
         <v>75</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>75</v>
